--- a/ArticleManage/main_working_folder/output_folders/Data 70 Regeneration of Activated Carbons/Data70_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 70 Regeneration of Activated Carbons/Data70_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="C-AC-A" sheetId="1" r:id="rId1"/>
-    <sheet name="C-AC-W" sheetId="2" r:id="rId4"/>
-    <sheet name="H-AC" sheetId="3" r:id="rId5"/>
-    <sheet name="S-AC" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 C-AC-A  0-1-0-600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 C-AC-W  0-1-0-600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 H-AC  0-1-0-600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 S-AC  0-1-0-600 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C-AC-A</a:t>
+              <a:t>Izoterma adsorpcji probki C-AC-A z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'C-AC-A'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 C-AC-A  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C-AC-A'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 C-AC-A  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki C-AC-W</a:t>
+              <a:t>Izoterma adsorpcji probki C-AC-W z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'C-AC-W'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 C-AC-W  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C-AC-W'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 C-AC-W  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki H-AC</a:t>
+              <a:t>Izoterma adsorpcji probki H-AC z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'H-AC'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 H-AC  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'H-AC'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 H-AC  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki S-AC</a:t>
+              <a:t>Izoterma adsorpcji probki S-AC z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'S-AC'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 S-AC  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'S-AC'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 S-AC  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 70 Regeneration of Activated Carbons/Data70_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 70 Regeneration of Activated Carbons/Data70_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,517 +4034,341 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.0017</v>
       </c>
       <c r="B3" s="0">
-        <v>354.3377</v>
+        <v>266.6667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.0029</v>
       </c>
       <c r="B4" s="0">
-        <v>370.5345</v>
+        <v>244.1767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.0028</v>
       </c>
       <c r="B5" s="0">
-        <v>387.4611</v>
+        <v>219.2771</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.004</v>
       </c>
       <c r="B6" s="0">
-        <v>398.2367</v>
+        <v>196.7871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.0015</v>
       </c>
       <c r="B7" s="0">
-        <v>411.0042</v>
+        <v>161.4458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.0015</v>
       </c>
       <c r="B8" s="0">
-        <v>422.1153</v>
+        <v>130.9237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>-0.001</v>
       </c>
       <c r="B9" s="0">
-        <v>430.4999</v>
+        <v>104.4177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.0037</v>
       </c>
       <c r="B10" s="0">
-        <v>437.2319</v>
+        <v>76.3052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.0013</v>
       </c>
       <c r="B11" s="0">
-        <v>444.5754</v>
+        <v>52.2088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.0012</v>
       </c>
       <c r="B12" s="0">
-        <v>451.4089</v>
+        <v>28.1124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.0029</v>
       </c>
       <c r="B13" s="0">
-        <v>456.8771</v>
+        <v>281.1245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.0065</v>
       </c>
       <c r="B14" s="0">
-        <v>461.3912</v>
+        <v>294.7791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.0101</v>
       </c>
       <c r="B15" s="0">
-        <v>466.6879</v>
+        <v>307.6305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.0197</v>
       </c>
       <c r="B16" s="0">
-        <v>471.4002</v>
+        <v>330.1205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.0305</v>
       </c>
       <c r="B17" s="0">
-        <v>474.5789</v>
+        <v>343.7751</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.0412</v>
       </c>
       <c r="B18" s="0">
-        <v>478.7869</v>
+        <v>355.0201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.0508</v>
       </c>
       <c r="B19" s="0">
-        <v>482.2428</v>
+        <v>363.8554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.0747</v>
       </c>
       <c r="B20" s="0">
-        <v>485.075</v>
+        <v>383.9357</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.1021</v>
       </c>
       <c r="B21" s="0">
-        <v>488.8103</v>
+        <v>402.4096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.1272</v>
       </c>
       <c r="B22" s="0">
-        <v>490.9512</v>
+        <v>415.261</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.1498</v>
       </c>
       <c r="B23" s="0">
-        <v>493.8277</v>
+        <v>428.9157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.1761</v>
       </c>
       <c r="B24" s="0">
-        <v>496.7013</v>
+        <v>436.1446</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.2035</v>
       </c>
       <c r="B25" s="0">
-        <v>497.0997</v>
+        <v>446.5863</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.2321</v>
       </c>
       <c r="B26" s="0">
-        <v>499.3389</v>
+        <v>456.2249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.2584</v>
       </c>
       <c r="B27" s="0">
-        <v>501.4014</v>
+        <v>461.0442</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.2858</v>
       </c>
       <c r="B28" s="0">
-        <v>502.7793</v>
+        <v>467.4699</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.312</v>
       </c>
       <c r="B29" s="0">
-        <v>504.8444</v>
+        <v>473.8956</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.355</v>
       </c>
       <c r="B30" s="0">
-        <v>505.7991</v>
+        <v>481.9277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.4193</v>
       </c>
       <c r="B31" s="0">
-        <v>507.7372</v>
+        <v>490.7631</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.4694</v>
       </c>
       <c r="B32" s="0">
-        <v>509.3351</v>
+        <v>497.1888</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.5219</v>
       </c>
       <c r="B33" s="0">
-        <v>510.4511</v>
+        <v>502.008</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.5719</v>
       </c>
       <c r="B34" s="0">
-        <v>512.2658</v>
+        <v>506.8273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.6244</v>
       </c>
       <c r="B35" s="0">
-        <v>512.6074</v>
+        <v>510.0402</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7</v>
+        <v>0.6733</v>
       </c>
       <c r="B36" s="0">
-        <v>514.4455</v>
+        <v>514.0562</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.72</v>
+        <v>0.7245</v>
       </c>
       <c r="B37" s="0">
-        <v>516.1651</v>
+        <v>517.2691</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.74</v>
+        <v>0.7746</v>
       </c>
       <c r="B38" s="0">
-        <v>517.103</v>
+        <v>521.2851</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.76</v>
+        <v>0.8246</v>
       </c>
       <c r="B39" s="0">
-        <v>518.8702</v>
+        <v>524.498</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.78</v>
+        <v>0.8723</v>
       </c>
       <c r="B40" s="0">
-        <v>520.0172</v>
+        <v>527.7108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="B41" s="0">
-        <v>521.7369</v>
+        <v>533.3333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.82</v>
+        <v>0.9605</v>
       </c>
       <c r="B42" s="0">
-        <v>523.4696</v>
+        <v>539.759</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.84</v>
+        <v>0.9784</v>
       </c>
       <c r="B43" s="0">
-        <v>524.7002</v>
+        <v>545.3815</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.86</v>
+        <v>0.9916</v>
       </c>
       <c r="B44" s="0">
-        <v>526.6268</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>528.8321</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>531.7349</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>533.7699</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>536.225</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>540.2961</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>546.2055</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9963</v>
-      </c>
-      <c r="B51" s="0">
-        <v>552.6104</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0329</v>
-      </c>
-      <c r="B52" s="0">
-        <v>343.7751</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0221</v>
-      </c>
-      <c r="B53" s="0">
-        <v>329.3173</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0137</v>
-      </c>
-      <c r="B54" s="0">
-        <v>310.8434</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0065</v>
-      </c>
-      <c r="B55" s="0">
-        <v>294.7791</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0053</v>
-      </c>
-      <c r="B56" s="0">
-        <v>281.9277</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0017</v>
-      </c>
-      <c r="B57" s="0">
-        <v>266.6667</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0029</v>
-      </c>
-      <c r="B58" s="0">
-        <v>244.1767</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.0028</v>
-      </c>
-      <c r="B59" s="0">
-        <v>219.2771</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.004</v>
-      </c>
-      <c r="B60" s="0">
-        <v>196.7871</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.0015</v>
-      </c>
-      <c r="B61" s="0">
-        <v>161.4458</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.0015</v>
-      </c>
-      <c r="B62" s="0">
-        <v>130.9237</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>-0.001</v>
-      </c>
-      <c r="B63" s="0">
-        <v>104.4177</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.0037</v>
-      </c>
-      <c r="B64" s="0">
-        <v>76.3052</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.0013</v>
-      </c>
-      <c r="B65" s="0">
-        <v>52.2088</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.0012</v>
-      </c>
-      <c r="B66" s="0">
-        <v>28.1124</v>
-      </c>
-    </row>
-    <row r="67"/>
+        <v>551.8072</v>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4553,7 +4377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4574,461 +4398,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9915</v>
       </c>
       <c r="B3" s="0">
-        <v>301.0705</v>
+        <v>506.8273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9748</v>
       </c>
       <c r="B4" s="0">
-        <v>314.2745</v>
+        <v>494.7791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9557</v>
       </c>
       <c r="B5" s="0">
-        <v>328.6594</v>
+        <v>486.747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.9127</v>
       </c>
       <c r="B6" s="0">
-        <v>340.5251</v>
+        <v>477.1084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.8651</v>
       </c>
       <c r="B7" s="0">
-        <v>351.2679</v>
+        <v>469.8795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.8198</v>
       </c>
       <c r="B8" s="0">
-        <v>360.7937</v>
+        <v>464.257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.7673</v>
       </c>
       <c r="B9" s="0">
-        <v>369.1402</v>
+        <v>460.241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.7184</v>
       </c>
       <c r="B10" s="0">
-        <v>374.7653</v>
+        <v>455.4217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.6672</v>
       </c>
       <c r="B11" s="0">
-        <v>381.5055</v>
+        <v>449.7992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.6171</v>
       </c>
       <c r="B12" s="0">
-        <v>388.3184</v>
+        <v>446.5863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.5706</v>
       </c>
       <c r="B13" s="0">
-        <v>392.801</v>
+        <v>443.3735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.5182</v>
       </c>
       <c r="B14" s="0">
-        <v>397.012</v>
+        <v>439.3574</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.4645</v>
       </c>
       <c r="B15" s="0">
-        <v>402.2435</v>
+        <v>433.7349</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4156</v>
       </c>
       <c r="B16" s="0">
-        <v>407.0145</v>
+        <v>428.1124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.3524</v>
       </c>
       <c r="B17" s="0">
-        <v>411.2264</v>
+        <v>417.6707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.3107</v>
       </c>
       <c r="B18" s="0">
-        <v>415.114</v>
+        <v>411.245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.2833</v>
       </c>
       <c r="B19" s="0">
-        <v>418.5436</v>
+        <v>406.4257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.2547</v>
       </c>
       <c r="B20" s="0">
-        <v>421.1389</v>
+        <v>398.3936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.226</v>
       </c>
       <c r="B21" s="0">
-        <v>423.0987</v>
+        <v>391.9679</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.2034</v>
       </c>
       <c r="B22" s="0">
-        <v>426.1214</v>
+        <v>383.9357</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.1771</v>
       </c>
       <c r="B23" s="0">
-        <v>430.7657</v>
+        <v>375.9036</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.1533</v>
       </c>
       <c r="B24" s="0">
-        <v>433.1161</v>
+        <v>367.0683</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.1247</v>
       </c>
       <c r="B25" s="0">
-        <v>433.5842</v>
+        <v>355.0201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.102</v>
       </c>
       <c r="B26" s="0">
-        <v>434.4125</v>
+        <v>344.5783</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.0757</v>
       </c>
       <c r="B27" s="0">
-        <v>435.6189</v>
+        <v>328.5141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.0519</v>
       </c>
       <c r="B28" s="0">
-        <v>437.7256</v>
+        <v>309.2369</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.0387</v>
       </c>
       <c r="B29" s="0">
-        <v>439.7487</v>
+        <v>301.2048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.0304</v>
       </c>
       <c r="B30" s="0">
-        <v>441.0721</v>
+        <v>291.5663</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.0208</v>
       </c>
       <c r="B31" s="0">
-        <v>442.502</v>
+        <v>280.3213</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.0136</v>
       </c>
       <c r="B32" s="0">
-        <v>443.8801</v>
+        <v>257.0281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.004</v>
       </c>
       <c r="B33" s="0">
-        <v>445.7607</v>
+        <v>232.9317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.0016</v>
       </c>
       <c r="B34" s="0">
-        <v>447.6273</v>
+        <v>181.5261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.0015</v>
       </c>
       <c r="B35" s="0">
-        <v>449.2458</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>450.8114</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>452.2519</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>454.462</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>456.2449</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>458.0016</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>459.9216</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>461.516</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>465.1857</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>468.5272</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>470.7736</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>474.2059</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>478.5304</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>482.6116</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>488.169</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>498.7686</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0316</v>
-      </c>
-      <c r="B51" s="0">
-        <v>289.9598</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0232</v>
-      </c>
-      <c r="B52" s="0">
-        <v>281.1245</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0136</v>
-      </c>
-      <c r="B53" s="0">
-        <v>258.6345</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.004</v>
-      </c>
-      <c r="B54" s="0">
-        <v>232.9317</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0015</v>
-      </c>
-      <c r="B55" s="0">
-        <v>179.9197</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0027</v>
-      </c>
-      <c r="B56" s="0">
-        <v>147.7912</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>-0.001</v>
-      </c>
-      <c r="B57" s="0">
-        <v>118.0723</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0014</v>
-      </c>
-      <c r="B58" s="0">
-        <v>96.3855</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.9939</v>
-      </c>
-      <c r="B59" s="0">
-        <v>506.8273</v>
-      </c>
-    </row>
-    <row r="60"/>
+        <v>148.5944</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5037,7 +4669,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5058,413 +4690,229 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.991</v>
       </c>
       <c r="B3" s="0">
-        <v>146.8054</v>
+        <v>260.241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9767</v>
       </c>
       <c r="B4" s="0">
-        <v>158.5876</v>
+        <v>255.4217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9481</v>
       </c>
       <c r="B5" s="0">
-        <v>166.9565</v>
+        <v>252.2088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9075</v>
       </c>
       <c r="B6" s="0">
-        <v>173.6603</v>
+        <v>248.1928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.8622</v>
       </c>
       <c r="B7" s="0">
-        <v>179.205</v>
+        <v>241.7671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.8157</v>
       </c>
       <c r="B8" s="0">
-        <v>183.7181</v>
+        <v>238.5542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.7657</v>
       </c>
       <c r="B9" s="0">
-        <v>187.3924</v>
+        <v>235.3414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.718</v>
       </c>
       <c r="B10" s="0">
-        <v>190.3344</v>
+        <v>233.7349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.6643</v>
       </c>
       <c r="B11" s="0">
-        <v>193.0702</v>
+        <v>229.7189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.6179</v>
       </c>
       <c r="B12" s="0">
-        <v>195.5737</v>
+        <v>228.9157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.5678</v>
       </c>
       <c r="B13" s="0">
-        <v>197.8955</v>
+        <v>225.7028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.5177</v>
       </c>
       <c r="B14" s="0">
-        <v>200.7208</v>
+        <v>223.2932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.4641</v>
       </c>
       <c r="B15" s="0">
-        <v>203.3356</v>
+        <v>219.2771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.4128</v>
       </c>
       <c r="B16" s="0">
-        <v>204.8053</v>
+        <v>215.261</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.352</v>
       </c>
       <c r="B17" s="0">
-        <v>206.5015</v>
+        <v>211.245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.3103</v>
       </c>
       <c r="B18" s="0">
-        <v>208.5321</v>
+        <v>208.0321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.2865</v>
       </c>
       <c r="B19" s="0">
-        <v>210.6853</v>
+        <v>206.4257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.2567</v>
       </c>
       <c r="B20" s="0">
-        <v>212.067</v>
+        <v>203.2129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.2328</v>
       </c>
       <c r="B21" s="0">
-        <v>213.0747</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.2042</v>
       </c>
       <c r="B22" s="0">
-        <v>214.2374</v>
+        <v>196.7871</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.1792</v>
       </c>
       <c r="B23" s="0">
-        <v>215.9514</v>
+        <v>192.7711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.1506</v>
       </c>
       <c r="B24" s="0">
-        <v>217.4468</v>
+        <v>189.5582</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.1243</v>
       </c>
       <c r="B25" s="0">
-        <v>218.7779</v>
+        <v>186.3454</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.1005</v>
       </c>
       <c r="B26" s="0">
-        <v>219.5376</v>
+        <v>181.5261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.0754</v>
       </c>
       <c r="B27" s="0">
-        <v>221.2724</v>
+        <v>172.6908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.0528</v>
       </c>
       <c r="B28" s="0">
-        <v>222.4272</v>
+        <v>164.6586</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.0385</v>
       </c>
       <c r="B29" s="0">
-        <v>223.5785</v>
+        <v>159.8394</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0265</v>
       </c>
       <c r="B30" s="0">
-        <v>224.7295</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>225.4736</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>227.0528</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>228.1031</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>229.2673</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>230.5071</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>230.6332</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>231.8206</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>232.9213</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>234.5098</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>236.0452</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>237.0784</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>238.3092</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>239.0287</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>240.519</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>241.8565</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>243.2377</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>245.5359</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>247.6288</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>250.172</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>252.7747</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>256.3955</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9946</v>
-      </c>
-      <c r="B52" s="0">
-        <v>257.8313</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0074</v>
-      </c>
-      <c r="B53" s="0">
-        <v>133.3333</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>152.6104</v>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5473,7 +4921,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5494,405 +4942,229 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9922</v>
       </c>
       <c r="B3" s="0">
-        <v>134.2319</v>
+        <v>248.996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9743</v>
       </c>
       <c r="B4" s="0">
-        <v>146.0173</v>
+        <v>245.7831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9528</v>
       </c>
       <c r="B5" s="0">
-        <v>155.8077</v>
+        <v>240.9639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.9063</v>
       </c>
       <c r="B6" s="0">
-        <v>164.3632</v>
+        <v>236.9478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.8622</v>
       </c>
       <c r="B7" s="0">
-        <v>170.0705</v>
+        <v>232.9317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.8121</v>
       </c>
       <c r="B8" s="0">
-        <v>174.3677</v>
+        <v>228.9157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.7621</v>
       </c>
       <c r="B9" s="0">
-        <v>178.3503</v>
+        <v>226.506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.7144</v>
       </c>
       <c r="B10" s="0">
-        <v>181.7555</v>
+        <v>224.0964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.6631</v>
       </c>
       <c r="B11" s="0">
-        <v>184.5471</v>
+        <v>220.8835</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.6131</v>
       </c>
       <c r="B12" s="0">
-        <v>186.879</v>
+        <v>219.2771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.563</v>
       </c>
       <c r="B13" s="0">
-        <v>188.9385</v>
+        <v>216.0643</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.5106</v>
       </c>
       <c r="B14" s="0">
-        <v>191.0107</v>
+        <v>212.8514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.4617</v>
       </c>
       <c r="B15" s="0">
-        <v>193.1259</v>
+        <v>210.4418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.4104</v>
       </c>
       <c r="B16" s="0">
-        <v>195.214</v>
+        <v>207.2289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3544</v>
       </c>
       <c r="B17" s="0">
-        <v>197.3688</v>
+        <v>204.0161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.3115</v>
       </c>
       <c r="B18" s="0">
-        <v>199.4282</v>
+        <v>201.6064</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.2841</v>
       </c>
       <c r="B19" s="0">
-        <v>201.4071</v>
+        <v>197.5904</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.2578</v>
       </c>
       <c r="B20" s="0">
-        <v>203.3221</v>
+        <v>195.1807</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.2316</v>
       </c>
       <c r="B21" s="0">
-        <v>205.0758</v>
+        <v>191.9679</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.2054</v>
       </c>
       <c r="B22" s="0">
-        <v>206.581</v>
+        <v>189.5582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.178</v>
       </c>
       <c r="B23" s="0">
-        <v>207.9358</v>
+        <v>186.3454</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.1517</v>
       </c>
       <c r="B24" s="0">
-        <v>209.3576</v>
+        <v>181.5261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.1279</v>
       </c>
       <c r="B25" s="0">
-        <v>210.9526</v>
+        <v>177.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.1017</v>
       </c>
       <c r="B26" s="0">
-        <v>212.4399</v>
+        <v>172.6908</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.0754</v>
       </c>
       <c r="B27" s="0">
-        <v>213.6024</v>
+        <v>166.2651</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.0504</v>
       </c>
       <c r="B28" s="0">
-        <v>214.1436</v>
+        <v>159.0361</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.0408</v>
       </c>
       <c r="B29" s="0">
-        <v>214.4077</v>
+        <v>155.0201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0206</v>
       </c>
       <c r="B30" s="0">
-        <v>214.7014</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>215.5384</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>216.7989</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>218.149</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>219.6928</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>221.5721</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>223.3018</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>224.6762</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>225.5029</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>225.8182</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>226.1538</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>226.9961</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>228.2368</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>229.5952</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>230.9986</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>232.3994</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>233.9018</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>235.7185</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>237.8814</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>240.2149</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>242.8296</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9755</v>
-      </c>
-      <c r="B51" s="0">
-        <v>245.7831</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9957</v>
-      </c>
-      <c r="B52" s="0">
-        <v>249.7992</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>146.988</v>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 70 Regeneration of Activated Carbons/Data70_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 70 Regeneration of Activated Carbons/Data70_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 C-AC-A  0-1-0-600 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 C-AC-W  0-1-0-600 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 H-AC  0-1-0-600 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 S-AC  0-1-0-600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 C-AC-A  0&amp;1&amp;0&amp;600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 C-AC-W  0&amp;1&amp;0&amp;600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 H-AC  0&amp;1&amp;0&amp;600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 S-AC  0&amp;1&amp;0&amp;600 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 C-AC-A  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 C-AC-A  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 C-AC-A  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 C-AC-A  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 C-AC-W  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 C-AC-W  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 C-AC-W  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 C-AC-W  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 H-AC  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 H-AC  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 H-AC  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 H-AC  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 S-AC  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 S-AC  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 S-AC  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 S-AC  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
